--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxcl12-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxcl12-Itga5.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>109.026058</v>
+        <v>160.9723563333334</v>
       </c>
       <c r="H2">
-        <v>327.078174</v>
+        <v>482.917069</v>
       </c>
       <c r="I2">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="J2">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N2">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O2">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P2">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q2">
-        <v>3714.599165841286</v>
+        <v>1794.334066304792</v>
       </c>
       <c r="R2">
-        <v>33431.39249257158</v>
+        <v>16149.00659674312</v>
       </c>
       <c r="S2">
-        <v>0.1577214413026566</v>
+        <v>0.1020185807383097</v>
       </c>
       <c r="T2">
-        <v>0.1577214413026567</v>
+        <v>0.1020185807383097</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>109.026058</v>
+        <v>160.9723563333334</v>
       </c>
       <c r="H3">
-        <v>327.078174</v>
+        <v>482.917069</v>
       </c>
       <c r="I3">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="J3">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O3">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P3">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q3">
-        <v>3018.440601680826</v>
+        <v>4456.599688349431</v>
       </c>
       <c r="R3">
-        <v>27165.96541512743</v>
+        <v>40109.39719514488</v>
       </c>
       <c r="S3">
-        <v>0.1281626309943287</v>
+        <v>0.2533842407955335</v>
       </c>
       <c r="T3">
-        <v>0.1281626309943287</v>
+        <v>0.2533842407955335</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>109.026058</v>
+        <v>160.9723563333334</v>
       </c>
       <c r="H4">
-        <v>327.078174</v>
+        <v>482.917069</v>
       </c>
       <c r="I4">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="J4">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>12.377873</v>
       </c>
       <c r="O4">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P4">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q4">
-        <v>449.8368998715447</v>
+        <v>664.1651277349154</v>
       </c>
       <c r="R4">
-        <v>4048.532098843902</v>
+        <v>5977.486149614238</v>
       </c>
       <c r="S4">
-        <v>0.01910002157198845</v>
+        <v>0.03776174402514227</v>
       </c>
       <c r="T4">
-        <v>0.01910002157198845</v>
+        <v>0.03776174402514227</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>269.931655</v>
       </c>
       <c r="I5">
-        <v>0.2516978134001918</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="J5">
-        <v>0.2516978134001917</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N5">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O5">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P5">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q5">
-        <v>3065.590981613948</v>
+        <v>1002.962196270043</v>
       </c>
       <c r="R5">
-        <v>27590.31883452554</v>
+        <v>9026.65976643039</v>
       </c>
       <c r="S5">
-        <v>0.1301646305504061</v>
+        <v>0.0570243756272012</v>
       </c>
       <c r="T5">
-        <v>0.1301646305504061</v>
+        <v>0.05702437562720121</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>269.931655</v>
       </c>
       <c r="I6">
-        <v>0.2516978134001918</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="J6">
-        <v>0.2516978134001917</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O6">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P6">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q6">
         <v>2491.064008235845</v>
@@ -818,10 +818,10 @@
         <v>22419.5760741226</v>
       </c>
       <c r="S6">
-        <v>0.1057702832028573</v>
+        <v>0.1416318284431086</v>
       </c>
       <c r="T6">
-        <v>0.1057702832028573</v>
+        <v>0.1416318284431086</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>269.931655</v>
       </c>
       <c r="I7">
-        <v>0.2516978134001918</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="J7">
-        <v>0.2516978134001917</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>12.377873</v>
       </c>
       <c r="O7">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P7">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q7">
         <v>371.2421938077572</v>
@@ -880,10 +880,10 @@
         <v>3341.179744269815</v>
       </c>
       <c r="S7">
-        <v>0.01576289964692828</v>
+        <v>0.02110733025341254</v>
       </c>
       <c r="T7">
-        <v>0.01576289964692827</v>
+        <v>0.02110733025341254</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>475.433556</v>
       </c>
       <c r="I8">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="J8">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N8">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O8">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P8">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q8">
-        <v>5399.458694943541</v>
+        <v>1766.528210654792</v>
       </c>
       <c r="R8">
-        <v>48595.12825449187</v>
+        <v>15898.75389589313</v>
       </c>
       <c r="S8">
-        <v>0.2292603776611744</v>
+        <v>0.1004376522017027</v>
       </c>
       <c r="T8">
-        <v>0.2292603776611744</v>
+        <v>0.1004376522017027</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>475.433556</v>
       </c>
       <c r="I9">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="J9">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O9">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P9">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q9">
-        <v>4387.538096112443</v>
+        <v>4387.538096112444</v>
       </c>
       <c r="R9">
-        <v>39487.84286501199</v>
+        <v>39487.842865012</v>
       </c>
       <c r="S9">
-        <v>0.1862943487019391</v>
+        <v>0.2494576778684556</v>
       </c>
       <c r="T9">
-        <v>0.1862943487019391</v>
+        <v>0.2494576778684556</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>475.433556</v>
       </c>
       <c r="I10">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="J10">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>12.377873</v>
       </c>
       <c r="O10">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P10">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q10">
-        <v>653.8729084562653</v>
+        <v>653.8729084562655</v>
       </c>
       <c r="R10">
-        <v>5884.856176106387</v>
+        <v>5884.856176106388</v>
       </c>
       <c r="S10">
-        <v>0.02776336636772095</v>
+        <v>0.037176570047134</v>
       </c>
       <c r="T10">
-        <v>0.02776336636772094</v>
+        <v>0.037176570047134</v>
       </c>
     </row>
   </sheetData>
